--- a/Test Data Driven/AI-Generated/Common/completeCheckoutShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeCheckoutShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
@@ -540,6 +540,48 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Adrress 25 f1 @#$%^&amp;*!(#)#*</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25 f1 first name</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25 f1 last name</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25012334567955</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25 F1 City</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
